--- a/MultiVerse_Platform/Project_Documents/Schema Doc.xlsx
+++ b/MultiVerse_Platform/Project_Documents/Schema Doc.xlsx
@@ -14,12 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Schema for Multiverse Platform</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Database name</t>
     </r>
     <r>
@@ -162,6 +170,180 @@
   <si>
     <t>i_feedback_id,i_user_id,i_restaurant_id,sz_comment,dt_feedback_date.</t>
   </si>
+  <si>
+    <t>Service 3:Journey Junction Navigator</t>
+  </si>
+  <si>
+    <t>jn_t_flight_dtls</t>
+  </si>
+  <si>
+    <t>Filghts browsing</t>
+  </si>
+  <si>
+    <t>Used to view flights</t>
+  </si>
+  <si>
+    <t>i_flight_id (Primary Key),i_flight_number,sz_departure_airport,sz_arrival_airport,sz_departure_time,sz_arrival_time,f_ticket_price,i_available_seats,sz_duration</t>
+  </si>
+  <si>
+    <t>jn_t_hotel_dtls</t>
+  </si>
+  <si>
+    <t>Hotels Browsing</t>
+  </si>
+  <si>
+    <t>Used to view hotel room</t>
+  </si>
+  <si>
+    <r>
+      <t>i_hotel_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Primary Key),sz_hotel_name,sz_location,i_rating,f_price_per_night,i_available_rooms,sz_check_in_time,sz_check_out_time</t>
+    </r>
+  </si>
+  <si>
+    <t>jn_t_booking_dtls</t>
+  </si>
+  <si>
+    <t>Booking platform</t>
+  </si>
+  <si>
+    <t>Used to view flight and hotel room details</t>
+  </si>
+  <si>
+    <t>i_booking_id (Primary Key),i_user_id (Foreign Key),i_flight_id (Foreign Key),i_hotel_id(Foreign Key),dt_booking_date,f_total_price,sz_payment_status</t>
+  </si>
+  <si>
+    <t>jn_t_feedback</t>
+  </si>
+  <si>
+    <t>hotel details &amp; flight details</t>
+  </si>
+  <si>
+    <t>feedback about the hotel and flights</t>
+  </si>
+  <si>
+    <t>i_feedback_id(Primary Key),i_user_id(Foreign Key),i_flight_id (Foreign Key),i_hotel_id (Foreign Key),i_rating,sz_comments,dt_created_date</t>
+  </si>
+  <si>
+    <t>Service 4:Vitalverse Care</t>
+  </si>
+  <si>
+    <t>vc_t_hospital_dtls</t>
+  </si>
+  <si>
+    <t>Hospitals browsing</t>
+  </si>
+  <si>
+    <t>Used to view hospitals</t>
+  </si>
+  <si>
+    <t>i_hospital_id (Primary Key),sz_hospital_name,sz_location,i_rating,sz_specialties,I_contact_number</t>
+  </si>
+  <si>
+    <t>vc_t_appointment_dtls</t>
+  </si>
+  <si>
+    <t>Appointment scheduling</t>
+  </si>
+  <si>
+    <t>Used to scheduling the appointment with doctors</t>
+  </si>
+  <si>
+    <t>i_appointment_id (Primary Key),i_patient_id (Foreign Key),hospital_id (Foreign Key),doctor_id (Foreign Key),dt_appointment_date,sz_appointment_time,sz_status,i_user_id</t>
+  </si>
+  <si>
+    <t>vc_t_health_resourses</t>
+  </si>
+  <si>
+    <t>Health resources</t>
+  </si>
+  <si>
+    <t>Health resources like info about health, fat loss, weight gain etc.</t>
+  </si>
+  <si>
+    <t>i_resource_id (Primary Key),sz_resource_title,sz_description,sz_category,dt_upload_date,sz_source_url</t>
+  </si>
+  <si>
+    <t>vc_t_patient_health_info</t>
+  </si>
+  <si>
+    <t>Patient details</t>
+  </si>
+  <si>
+    <t>Used to view patient info, upload and document scans, reports</t>
+  </si>
+  <si>
+    <t>i_patient_id (Primary Key),sz_patient_name,sz_gender,dt_dob,sz_address,i_contact_number,sz_email,b_scan_reports,i_user_id,dt_created_date</t>
+  </si>
+  <si>
+    <t>vc_t_doctor_details</t>
+  </si>
+  <si>
+    <t>Doctor details</t>
+  </si>
+  <si>
+    <t>Used to view doctors available in the hospital</t>
+  </si>
+  <si>
+    <t>i_doctor_id,sz_doctor_name,sz_specialization,i_hospital_id,sz_qualification,sz_experience,i_contact_number,sz_email,sz_profile_picture_url</t>
+  </si>
+  <si>
+    <t>Service 5:Connect-verse platform</t>
+  </si>
+  <si>
+    <t>cv_t_user_profiles</t>
+  </si>
+  <si>
+    <t>profile page</t>
+  </si>
+  <si>
+    <t>Used to view user social info.</t>
+  </si>
+  <si>
+    <t>i_user_id,sz_username,sz_bio,sz_location,sz_profile_picture_url,dt_joined,sz_social_links,sz_interests,i_followers_count,i_following_count</t>
+  </si>
+  <si>
+    <t>cv_t_feed_posts</t>
+  </si>
+  <si>
+    <t>feed page</t>
+  </si>
+  <si>
+    <t>Used to view all users posts</t>
+  </si>
+  <si>
+    <t>i_post_id,i_user_id,sz_captions,dt_posted,sz_image_url,i_likes_count</t>
+  </si>
+  <si>
+    <t>cv_t_message_details</t>
+  </si>
+  <si>
+    <t>texting to others</t>
+  </si>
+  <si>
+    <t>Used to message others</t>
+  </si>
+  <si>
+    <t>i_message_id,i_sender_id,i_receiver_id,sz_message_content,dt_sent,sz_status</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +355,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +522,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -793,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,6 +996,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1336,18 +1534,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="48.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="102.222222222222" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="53.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="151.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -1527,6 +1725,189 @@
         <v>44</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" ht="19.2" spans="1:4">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
